--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$240</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8745" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8668" uniqueCount="683">
   <si>
     <t>Path</t>
   </si>
@@ -1509,37 +1509,35 @@
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
   </si>
   <si>
     <t>PID-30  (bool) and PID-29 (datetime)</t>
   </si>
   <si>
+    <t>Patient.deceasedBoolean</t>
+  </si>
+  <si>
     <t>deceasedBoolean</t>
   </si>
   <si>
     <t>Boolean indicates if individual is deceased</t>
   </si>
   <si>
+    <t>Boolean indicator if the individual is deceased or not.</t>
+  </si>
+  <si>
+    <t>Patient.deceasedDateTime</t>
+  </si>
+  <si>
     <t>deceasedDateTime</t>
   </si>
   <si>
     <t>Indicates date-time the individual died</t>
-  </si>
-  <si>
-    <t>Patient.deceasedBoolean</t>
-  </si>
-  <si>
-    <t>Deceased Indicator</t>
-  </si>
-  <si>
-    <t>Boolean indicator if the individual is deceased or not.</t>
-  </si>
-  <si>
-    <t>Patient.deceasedDateTime</t>
-  </si>
-  <si>
-    <t>Deceased Date Time</t>
   </si>
   <si>
     <t>Indivdual deceased date-time with optional accuracy indicator.</t>
@@ -2282,7 +2280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO242"/>
+  <dimension ref="A1:AO240"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12157,7 +12155,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>52</v>
@@ -12499,7 +12497,7 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>52</v>
@@ -14443,7 +14441,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>52</v>
@@ -14785,7 +14783,7 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>52</v>
@@ -16729,7 +16727,7 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>52</v>
@@ -17071,7 +17069,7 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>52</v>
@@ -24833,7 +24831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
         <v>475</v>
       </c>
@@ -24907,16 +24905,14 @@
         <v>44</v>
       </c>
       <c r="AA198" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="AB198" s="2"/>
       <c r="AC198" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD198" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE198" t="s" s="2">
         <v>475</v>
@@ -24934,7 +24930,7 @@
         <v>44</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>146</v>
@@ -24943,7 +24939,7 @@
         <v>44</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>44</v>
@@ -24951,10 +24947,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C199" t="s" s="2">
         <v>44</v>
@@ -24976,13 +24972,13 @@
         <v>53</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>476</v>
+        <v>244</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="M199" t="s" s="2">
         <v>479</v>
@@ -25052,7 +25048,7 @@
         <v>44</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>146</v>
@@ -25061,7 +25057,7 @@
         <v>44</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>44</v>
@@ -25069,10 +25065,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C200" t="s" s="2">
         <v>44</v>
@@ -25094,13 +25090,13 @@
         <v>53</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>476</v>
+        <v>312</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="M200" t="s" s="2">
         <v>479</v>
@@ -25170,7 +25166,7 @@
         <v>44</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>146</v>
@@ -25179,7 +25175,7 @@
         <v>44</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>44</v>
@@ -25187,11 +25183,9 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B201" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
         <v>44</v>
       </c>
@@ -25206,26 +25200,22 @@
         <v>44</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I201" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>488</v>
+        <v>143</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M201" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
         <v>44</v>
       </c>
@@ -25273,7 +25263,7 @@
         <v>44</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>475</v>
+        <v>145</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>42</v>
@@ -25288,16 +25278,16 @@
         <v>44</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>481</v>
+        <v>44</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>482</v>
+        <v>44</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>44</v>
@@ -25305,11 +25295,9 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B202" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
         <v>44</v>
       </c>
@@ -25318,32 +25306,28 @@
         <v>42</v>
       </c>
       <c r="F202" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G202" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I202" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>491</v>
+        <v>98</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
       <c r="O202" t="s" s="2">
         <v>44</v>
       </c>
@@ -25379,25 +25363,23 @@
         <v>44</v>
       </c>
       <c r="AA202" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AB202" s="2"/>
       <c r="AC202" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD202" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>475</v>
+        <v>149</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>44</v>
@@ -25406,16 +25388,16 @@
         <v>44</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>481</v>
+        <v>44</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>482</v>
+        <v>44</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>44</v>
@@ -25425,7 +25407,9 @@
       <c r="A203" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="B203" s="2"/>
+      <c r="B203" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="C203" t="s" s="2">
         <v>44</v>
       </c>
@@ -25446,15 +25430,17 @@
         <v>44</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>142</v>
+        <v>462</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>143</v>
+        <v>494</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M203" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
         <v>44</v>
@@ -25503,19 +25489,19 @@
         <v>44</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>44</v>
+        <v>496</v>
       </c>
       <c r="AJ203" t="s" s="2">
         <v>44</v>
@@ -25535,7 +25521,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25546,7 +25532,7 @@
         <v>42</v>
       </c>
       <c r="F204" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G204" t="s" s="2">
         <v>44</v>
@@ -25558,13 +25544,13 @@
         <v>44</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>97</v>
+        <v>471</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>98</v>
+        <v>498</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>99</v>
+        <v>473</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -25603,23 +25589,25 @@
         <v>44</v>
       </c>
       <c r="AA204" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB204" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC204" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD204" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>149</v>
+        <v>499</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>44</v>
@@ -25643,13 +25631,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="205" hidden="true">
+    <row r="205">
       <c r="A205" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B205" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
         <v>44</v>
       </c>
@@ -25658,30 +25644,32 @@
         <v>42</v>
       </c>
       <c r="F205" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H205" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N205" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O205" t="s" s="2">
         <v>44</v>
       </c>
@@ -25729,7 +25717,7 @@
         <v>44</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>149</v>
+        <v>500</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>42</v>
@@ -25738,30 +25726,30 @@
         <v>43</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>497</v>
+        <v>44</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>44</v>
+        <v>506</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>44</v>
+        <v>507</v>
       </c>
       <c r="AL205" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>44</v>
+        <v>508</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -25775,7 +25763,7 @@
         <v>52</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>44</v>
@@ -25784,16 +25772,18 @@
         <v>44</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>471</v>
+        <v>191</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
+      <c r="N206" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O206" t="s" s="2">
         <v>44</v>
       </c>
@@ -25817,13 +25807,13 @@
         <v>44</v>
       </c>
       <c r="W206" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>44</v>
+        <v>513</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>44</v>
+        <v>514</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>44</v>
@@ -25841,7 +25831,7 @@
         <v>44</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>42</v>
@@ -25856,16 +25846,16 @@
         <v>44</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>44</v>
+        <v>516</v>
       </c>
       <c r="AL206" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>44</v>
+        <v>517</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>44</v>
@@ -25873,7 +25863,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -25884,7 +25874,7 @@
         <v>42</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>53</v>
@@ -25893,22 +25883,22 @@
         <v>44</v>
       </c>
       <c r="I207" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>44</v>
@@ -25957,13 +25947,13 @@
         <v>44</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>44</v>
@@ -25972,16 +25962,16 @@
         <v>44</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>508</v>
+        <v>146</v>
       </c>
       <c r="AL207" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>44</v>
@@ -25989,7 +25979,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26000,7 +25990,7 @@
         <v>42</v>
       </c>
       <c r="F208" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s" s="2">
         <v>53</v>
@@ -26012,17 +26002,17 @@
         <v>44</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>191</v>
+        <v>527</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" t="s" s="2">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>44</v>
@@ -26047,13 +26037,13 @@
         <v>44</v>
       </c>
       <c r="W208" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X208" t="s" s="2">
-        <v>514</v>
+        <v>44</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>515</v>
+        <v>44</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>44</v>
@@ -26071,13 +26061,13 @@
         <v>44</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>44</v>
@@ -26086,16 +26076,16 @@
         <v>44</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>517</v>
+        <v>146</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>44</v>
@@ -26103,7 +26093,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26114,7 +26104,7 @@
         <v>42</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>53</v>
@@ -26126,19 +26116,19 @@
         <v>44</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>44</v>
@@ -26187,22 +26177,22 @@
         <v>44</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>44</v>
+        <v>539</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>146</v>
@@ -26211,15 +26201,15 @@
         <v>44</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>526</v>
+        <v>44</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26230,10 +26220,10 @@
         <v>42</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G210" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H210" t="s" s="2">
         <v>44</v>
@@ -26242,18 +26232,16 @@
         <v>44</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>528</v>
+        <v>142</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>529</v>
+        <v>143</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>530</v>
+        <v>144</v>
       </c>
       <c r="M210" s="2"/>
-      <c r="N210" t="s" s="2">
-        <v>531</v>
-      </c>
+      <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
         <v>44</v>
       </c>
@@ -26301,13 +26289,13 @@
         <v>44</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>527</v>
+        <v>145</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>44</v>
@@ -26316,28 +26304,28 @@
         <v>44</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>532</v>
+        <v>146</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>533</v>
+        <v>44</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26347,7 +26335,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H211" t="s" s="2">
         <v>44</v>
@@ -26356,20 +26344,18 @@
         <v>44</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>535</v>
+        <v>97</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>536</v>
+        <v>156</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>537</v>
+        <v>157</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
         <v>44</v>
       </c>
@@ -26417,7 +26403,7 @@
         <v>44</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>534</v>
+        <v>149</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>42</v>
@@ -26429,13 +26415,13 @@
         <v>44</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>540</v>
+        <v>44</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>541</v>
+        <v>146</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AL211" t="s" s="2">
         <v>44</v>
@@ -26449,38 +26435,40 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
-        <v>44</v>
+        <v>544</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F212" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G212" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I212" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M212" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="N212" s="2"/>
       <c r="O212" t="s" s="2">
         <v>44</v>
@@ -26529,13 +26517,13 @@
         <v>44</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>145</v>
+        <v>546</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>44</v>
@@ -26544,7 +26532,7 @@
         <v>44</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="AK212" t="s" s="2">
         <v>44</v>
@@ -26559,13 +26547,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="213" hidden="true">
+    <row r="213">
       <c r="A213" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -26575,7 +26563,7 @@
         <v>43</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>44</v>
@@ -26584,18 +26572,18 @@
         <v>44</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>156</v>
+        <v>548</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N213" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="M213" s="2"/>
+      <c r="N213" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="O213" t="s" s="2">
         <v>44</v>
       </c>
@@ -26619,13 +26607,11 @@
         <v>44</v>
       </c>
       <c r="W213" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X213" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="X213" s="2"/>
       <c r="Y213" t="s" s="2">
-        <v>44</v>
+        <v>551</v>
       </c>
       <c r="Z213" t="s" s="2">
         <v>44</v>
@@ -26643,7 +26629,7 @@
         <v>44</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>149</v>
+        <v>547</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>42</v>
@@ -26658,58 +26644,58 @@
         <v>44</v>
       </c>
       <c r="AJ213" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AK213" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AK213" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL213" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>44</v>
+        <v>553</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="214" hidden="true">
+    <row r="214">
       <c r="A214" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
-        <v>545</v>
+        <v>44</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F214" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I214" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>97</v>
+        <v>420</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>125</v>
+        <v>555</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M214" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N214" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M214" s="2"/>
+      <c r="N214" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="O214" t="s" s="2">
         <v>44</v>
       </c>
@@ -26757,13 +26743,13 @@
         <v>44</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>44</v>
@@ -26772,16 +26758,16 @@
         <v>44</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>95</v>
+        <v>425</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AL214" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>44</v>
+        <v>558</v>
       </c>
       <c r="AN214" t="s" s="2">
         <v>44</v>
@@ -26789,7 +26775,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -26812,17 +26798,19 @@
         <v>44</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>191</v>
+        <v>429</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M215" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="N215" t="s" s="2">
-        <v>551</v>
+        <v>433</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>44</v>
@@ -26847,11 +26835,13 @@
         <v>44</v>
       </c>
       <c r="W215" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X215" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X215" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y215" t="s" s="2">
-        <v>552</v>
+        <v>44</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>44</v>
@@ -26869,7 +26859,7 @@
         <v>44</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>42</v>
@@ -26884,7 +26874,7 @@
         <v>44</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>553</v>
+        <v>434</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>146</v>
@@ -26893,7 +26883,7 @@
         <v>44</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>44</v>
@@ -26901,7 +26891,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -26924,17 +26914,17 @@
         <v>44</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>44</v>
@@ -26983,7 +26973,7 @@
         <v>44</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>42</v>
@@ -26998,7 +26988,7 @@
         <v>44</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>425</v>
+        <v>506</v>
       </c>
       <c r="AK216" t="s" s="2">
         <v>146</v>
@@ -27007,7 +26997,7 @@
         <v>44</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>44</v>
@@ -27015,7 +27005,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27026,7 +27016,7 @@
         <v>42</v>
       </c>
       <c r="F217" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G217" t="s" s="2">
         <v>53</v>
@@ -27038,19 +27028,17 @@
         <v>44</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>429</v>
+        <v>71</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>561</v>
+        <v>438</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="M217" s="2"/>
       <c r="N217" t="s" s="2">
-        <v>433</v>
+        <v>571</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>44</v>
@@ -27075,13 +27063,13 @@
         <v>44</v>
       </c>
       <c r="W217" t="s" s="2">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>44</v>
+        <v>442</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>44</v>
@@ -27099,13 +27087,13 @@
         <v>44</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>44</v>
@@ -27114,7 +27102,7 @@
         <v>44</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>146</v>
@@ -27123,7 +27111,7 @@
         <v>44</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="AN217" t="s" s="2">
         <v>44</v>
@@ -27131,7 +27119,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27154,17 +27142,17 @@
         <v>44</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="M218" s="2"/>
       <c r="N218" t="s" s="2">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>44</v>
@@ -27213,7 +27201,7 @@
         <v>44</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>42</v>
@@ -27222,13 +27210,13 @@
         <v>52</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>44</v>
+        <v>578</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="AK218" t="s" s="2">
         <v>146</v>
@@ -27237,7 +27225,7 @@
         <v>44</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="AN218" t="s" s="2">
         <v>44</v>
@@ -27245,7 +27233,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27268,18 +27256,16 @@
         <v>44</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>438</v>
+        <v>582</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="M219" s="2"/>
-      <c r="N219" t="s" s="2">
-        <v>572</v>
-      </c>
+      <c r="N219" s="2"/>
       <c r="O219" t="s" s="2">
         <v>44</v>
       </c>
@@ -27303,13 +27289,13 @@
         <v>44</v>
       </c>
       <c r="W219" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>442</v>
+        <v>44</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>443</v>
+        <v>44</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>44</v>
@@ -27327,7 +27313,7 @@
         <v>44</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>42</v>
@@ -27342,7 +27328,7 @@
         <v>44</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>444</v>
+        <v>584</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>146</v>
@@ -27351,15 +27337,15 @@
         <v>44</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>573</v>
+        <v>44</v>
       </c>
       <c r="AN219" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27370,29 +27356,31 @@
         <v>42</v>
       </c>
       <c r="F220" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G220" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H220" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H220" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="I220" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M220" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="N220" t="s" s="2">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>44</v>
@@ -27441,7 +27429,7 @@
         <v>44</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>42</v>
@@ -27450,13 +27438,13 @@
         <v>52</v>
       </c>
       <c r="AH220" t="s" s="2">
-        <v>579</v>
+        <v>44</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>44</v>
+        <v>590</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>146</v>
@@ -27465,15 +27453,15 @@
         <v>44</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>581</v>
+        <v>44</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27487,7 +27475,7 @@
         <v>52</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H221" t="s" s="2">
         <v>44</v>
@@ -27496,13 +27484,13 @@
         <v>44</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>280</v>
+        <v>142</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>583</v>
+        <v>143</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>584</v>
+        <v>144</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
@@ -27553,7 +27541,7 @@
         <v>44</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>582</v>
+        <v>145</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>42</v>
@@ -27568,10 +27556,10 @@
         <v>44</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>585</v>
+        <v>146</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AL221" t="s" s="2">
         <v>44</v>
@@ -27585,43 +27573,41 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F222" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>535</v>
+        <v>97</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>587</v>
+        <v>156</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>588</v>
+        <v>157</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
         <v>44</v>
       </c>
@@ -27669,25 +27655,25 @@
         <v>44</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>586</v>
+        <v>149</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>591</v>
+        <v>44</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>592</v>
+        <v>146</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AL222" t="s" s="2">
         <v>44</v>
@@ -27701,38 +27687,40 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
-        <v>44</v>
+        <v>544</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F223" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H223" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I223" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M223" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
         <v>44</v>
@@ -27781,13 +27769,13 @@
         <v>44</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>145</v>
+        <v>546</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>44</v>
@@ -27796,7 +27784,7 @@
         <v>44</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="AK223" t="s" s="2">
         <v>44</v>
@@ -27813,18 +27801,18 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F224" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G224" t="s" s="2">
         <v>44</v>
@@ -27833,21 +27821,23 @@
         <v>44</v>
       </c>
       <c r="I224" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>156</v>
+        <v>596</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>157</v>
+        <v>597</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N224" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="O224" t="s" s="2">
         <v>44</v>
       </c>
@@ -27871,13 +27861,13 @@
         <v>44</v>
       </c>
       <c r="W224" t="s" s="2">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="X224" t="s" s="2">
-        <v>44</v>
+        <v>601</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>44</v>
+        <v>602</v>
       </c>
       <c r="Z224" t="s" s="2">
         <v>44</v>
@@ -27895,13 +27885,13 @@
         <v>44</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>149</v>
+        <v>595</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>44</v>
@@ -27910,16 +27900,16 @@
         <v>44</v>
       </c>
       <c r="AJ224" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AK224" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AK224" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL224" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>44</v>
+        <v>603</v>
       </c>
       <c r="AN224" t="s" s="2">
         <v>44</v>
@@ -27927,41 +27917,43 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
-        <v>545</v>
+        <v>44</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F225" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G225" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>125</v>
+        <v>605</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N225" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="O225" t="s" s="2">
         <v>44</v>
       </c>
@@ -27985,13 +27977,13 @@
         <v>44</v>
       </c>
       <c r="W225" t="s" s="2">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>44</v>
+        <v>609</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>44</v>
+        <v>610</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>44</v>
@@ -28009,13 +28001,13 @@
         <v>44</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>44</v>
@@ -28024,16 +28016,16 @@
         <v>44</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>95</v>
+        <v>611</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AL225" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>44</v>
+        <v>612</v>
       </c>
       <c r="AN225" t="s" s="2">
         <v>44</v>
@@ -28041,7 +28033,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28049,7 +28041,7 @@
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F226" t="s" s="2">
         <v>52</v>
@@ -28067,16 +28059,14 @@
         <v>191</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="M226" s="2"/>
       <c r="N226" t="s" s="2">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>44</v>
@@ -28101,13 +28091,13 @@
         <v>44</v>
       </c>
       <c r="W226" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="Z226" t="s" s="2">
         <v>44</v>
@@ -28125,10 +28115,10 @@
         <v>44</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>52</v>
@@ -28140,7 +28130,7 @@
         <v>44</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="AK226" t="s" s="2">
         <v>146</v>
@@ -28149,15 +28139,15 @@
         <v>44</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>604</v>
+        <v>95</v>
       </c>
       <c r="AN226" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="227" hidden="true">
+    <row r="227">
       <c r="A227" t="s" s="2">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28168,31 +28158,31 @@
         <v>42</v>
       </c>
       <c r="F227" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I227" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>191</v>
+        <v>534</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>44</v>
@@ -28217,13 +28207,13 @@
         <v>44</v>
       </c>
       <c r="W227" t="s" s="2">
-        <v>601</v>
+        <v>44</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>610</v>
+        <v>44</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>611</v>
+        <v>44</v>
       </c>
       <c r="Z227" t="s" s="2">
         <v>44</v>
@@ -28241,31 +28231,31 @@
         <v>44</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>44</v>
+        <v>590</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>146</v>
+        <v>626</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>613</v>
+        <v>44</v>
       </c>
       <c r="AN227" t="s" s="2">
         <v>44</v>
@@ -28273,7 +28263,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28293,21 +28283,19 @@
         <v>44</v>
       </c>
       <c r="I228" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>615</v>
+        <v>143</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>616</v>
+        <v>144</v>
       </c>
       <c r="M228" s="2"/>
-      <c r="N228" t="s" s="2">
-        <v>617</v>
-      </c>
+      <c r="N228" s="2"/>
       <c r="O228" t="s" s="2">
         <v>44</v>
       </c>
@@ -28331,13 +28319,13 @@
         <v>44</v>
       </c>
       <c r="W228" t="s" s="2">
-        <v>601</v>
+        <v>44</v>
       </c>
       <c r="X228" t="s" s="2">
-        <v>618</v>
+        <v>44</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>619</v>
+        <v>44</v>
       </c>
       <c r="Z228" t="s" s="2">
         <v>44</v>
@@ -28355,7 +28343,7 @@
         <v>44</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>614</v>
+        <v>145</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>42</v>
@@ -28370,28 +28358,28 @@
         <v>44</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>620</v>
+        <v>146</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AL228" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM228" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AN228" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28401,7 +28389,7 @@
         <v>43</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>44</v>
@@ -28410,20 +28398,18 @@
         <v>44</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>535</v>
+        <v>97</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>622</v>
+        <v>156</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>623</v>
+        <v>157</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>625</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
         <v>44</v>
       </c>
@@ -28471,7 +28457,7 @@
         <v>44</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>621</v>
+        <v>149</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>42</v>
@@ -28483,13 +28469,13 @@
         <v>44</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>591</v>
+        <v>44</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>626</v>
+        <v>146</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>627</v>
+        <v>44</v>
       </c>
       <c r="AL229" t="s" s="2">
         <v>44</v>
@@ -28503,38 +28489,40 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
-        <v>44</v>
+        <v>544</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I230" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M230" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
         <v>44</v>
@@ -28583,13 +28571,13 @@
         <v>44</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>145</v>
+        <v>546</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>44</v>
@@ -28598,7 +28586,7 @@
         <v>44</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="AK230" t="s" s="2">
         <v>44</v>
@@ -28613,23 +28601,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" hidden="true">
+    <row r="231">
       <c r="A231" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F231" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H231" t="s" s="2">
         <v>44</v>
@@ -28638,18 +28626,20 @@
         <v>44</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>156</v>
+        <v>631</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>157</v>
+        <v>632</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N231" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="N231" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="O231" t="s" s="2">
         <v>44</v>
       </c>
@@ -28673,13 +28663,11 @@
         <v>44</v>
       </c>
       <c r="W231" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X231" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="X231" s="2"/>
       <c r="Y231" t="s" s="2">
-        <v>44</v>
+        <v>635</v>
       </c>
       <c r="Z231" t="s" s="2">
         <v>44</v>
@@ -28697,13 +28685,13 @@
         <v>44</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>149</v>
+        <v>630</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>44</v>
@@ -28712,58 +28700,60 @@
         <v>44</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>146</v>
+        <v>636</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>44</v>
+        <v>637</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM231" t="s" s="2">
-        <v>44</v>
+        <v>638</v>
       </c>
       <c r="AN231" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="232" hidden="true">
+    <row r="232">
       <c r="A232" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
-        <v>545</v>
+        <v>44</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F232" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G232" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I232" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>97</v>
+        <v>244</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>125</v>
+        <v>640</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>546</v>
+        <v>641</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N232" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="O232" t="s" s="2">
         <v>44</v>
       </c>
@@ -28811,13 +28801,13 @@
         <v>44</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>547</v>
+        <v>639</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>44</v>
@@ -28826,16 +28816,16 @@
         <v>44</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>95</v>
+        <v>644</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>44</v>
+        <v>645</v>
       </c>
       <c r="AL232" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM232" t="s" s="2">
-        <v>44</v>
+        <v>646</v>
       </c>
       <c r="AN232" t="s" s="2">
         <v>44</v>
@@ -28843,18 +28833,20 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D233" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="D233" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="E233" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F233" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>53</v>
@@ -28866,20 +28858,18 @@
         <v>44</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>191</v>
+        <v>650</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
         <v>44</v>
       </c>
@@ -28903,11 +28893,13 @@
         <v>44</v>
       </c>
       <c r="W233" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X233" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X233" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y233" t="s" s="2">
-        <v>636</v>
+        <v>44</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>44</v>
@@ -28925,13 +28917,13 @@
         <v>44</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>44</v>
@@ -28940,16 +28932,16 @@
         <v>44</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>638</v>
+        <v>146</v>
       </c>
       <c r="AL233" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM233" t="s" s="2">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="AN233" t="s" s="2">
         <v>44</v>
@@ -28957,13 +28949,15 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D234" s="2"/>
+      <c r="D234" t="s" s="2">
+        <v>657</v>
+      </c>
       <c r="E234" t="s" s="2">
         <v>42</v>
       </c>
@@ -28977,22 +28971,22 @@
         <v>44</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>244</v>
+        <v>574</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>44</v>
@@ -29041,7 +29035,7 @@
         <v>44</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>42</v>
@@ -29056,32 +29050,30 @@
         <v>44</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>645</v>
+        <v>579</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="AL234" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM234" t="s" s="2">
-        <v>647</v>
+        <v>44</v>
       </c>
       <c r="AN234" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="D235" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
         <v>42</v>
       </c>
@@ -29089,27 +29081,29 @@
         <v>43</v>
       </c>
       <c r="G235" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H235" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H235" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="I235" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>651</v>
+        <v>534</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N235" s="2"/>
+        <v>666</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="O235" t="s" s="2">
         <v>44</v>
       </c>
@@ -29157,7 +29151,7 @@
         <v>44</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>42</v>
@@ -29169,10 +29163,10 @@
         <v>44</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>44</v>
+        <v>590</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="AK235" t="s" s="2">
         <v>146</v>
@@ -29181,23 +29175,21 @@
         <v>44</v>
       </c>
       <c r="AM235" t="s" s="2">
-        <v>656</v>
+        <v>44</v>
       </c>
       <c r="AN235" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D236" t="s" s="2">
-        <v>658</v>
-      </c>
+      <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
         <v>42</v>
       </c>
@@ -29205,29 +29197,25 @@
         <v>52</v>
       </c>
       <c r="G236" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H236" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I236" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>575</v>
+        <v>142</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>659</v>
+        <v>143</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>662</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
         <v>44</v>
       </c>
@@ -29275,7 +29263,7 @@
         <v>44</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>657</v>
+        <v>145</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>42</v>
@@ -29290,10 +29278,10 @@
         <v>44</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>580</v>
+        <v>146</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>663</v>
+        <v>44</v>
       </c>
       <c r="AL236" t="s" s="2">
         <v>44</v>
@@ -29307,11 +29295,11 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -29324,26 +29312,24 @@
         <v>44</v>
       </c>
       <c r="H237" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I237" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>535</v>
+        <v>97</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>665</v>
+        <v>156</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>666</v>
+        <v>157</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N237" s="2"/>
       <c r="O237" t="s" s="2">
         <v>44</v>
       </c>
@@ -29391,7 +29377,7 @@
         <v>44</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>664</v>
+        <v>149</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>42</v>
@@ -29403,13 +29389,13 @@
         <v>44</v>
       </c>
       <c r="AI237" t="s" s="2">
-        <v>591</v>
+        <v>44</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>669</v>
+        <v>146</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AL237" t="s" s="2">
         <v>44</v>
@@ -29423,38 +29409,40 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
-        <v>44</v>
+        <v>544</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F238" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H238" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M238" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="N238" s="2"/>
       <c r="O238" t="s" s="2">
         <v>44</v>
@@ -29503,13 +29491,13 @@
         <v>44</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>145</v>
+        <v>546</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>44</v>
@@ -29518,7 +29506,7 @@
         <v>44</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="AK238" t="s" s="2">
         <v>44</v>
@@ -29535,18 +29523,18 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F239" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G239" t="s" s="2">
         <v>44</v>
@@ -29555,19 +29543,19 @@
         <v>44</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>97</v>
+        <v>673</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>156</v>
+        <v>674</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>157</v>
+        <v>675</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>127</v>
+        <v>676</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" t="s" s="2">
@@ -29617,13 +29605,13 @@
         <v>44</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>149</v>
+        <v>672</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>44</v>
@@ -29632,16 +29620,16 @@
         <v>44</v>
       </c>
       <c r="AJ239" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK239" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AK239" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL239" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM239" t="s" s="2">
-        <v>44</v>
+        <v>677</v>
       </c>
       <c r="AN239" t="s" s="2">
         <v>44</v>
@@ -29649,40 +29637,38 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
-        <v>545</v>
+        <v>44</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F240" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G240" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>125</v>
+        <v>679</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="M240" s="2"/>
       <c r="N240" s="2"/>
       <c r="O240" t="s" s="2">
         <v>44</v>
@@ -29707,13 +29693,13 @@
         <v>44</v>
       </c>
       <c r="W240" t="s" s="2">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>44</v>
+        <v>680</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>44</v>
+        <v>681</v>
       </c>
       <c r="Z240" t="s" s="2">
         <v>44</v>
@@ -29731,13 +29717,13 @@
         <v>44</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>547</v>
+        <v>678</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>44</v>
@@ -29746,10 +29732,10 @@
         <v>44</v>
       </c>
       <c r="AJ240" t="s" s="2">
-        <v>95</v>
+        <v>682</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AL240" t="s" s="2">
         <v>44</v>
@@ -29758,237 +29744,11 @@
         <v>44</v>
       </c>
       <c r="AN240" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="241" hidden="true">
-      <c r="A241" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="B241" s="2"/>
-      <c r="C241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D241" s="2"/>
-      <c r="E241" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F241" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I241" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J241" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="K241" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N241" s="2"/>
-      <c r="O241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P241" s="2"/>
-      <c r="Q241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE241" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AF241" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG241" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ241" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK241" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AL241" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM241" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AN241" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="242" hidden="true">
-      <c r="A242" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="B242" s="2"/>
-      <c r="C242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D242" s="2"/>
-      <c r="E242" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F242" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I242" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J242" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K242" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="M242" s="2"/>
-      <c r="N242" s="2"/>
-      <c r="O242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P242" s="2"/>
-      <c r="Q242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W242" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X242" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="Y242" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="Z242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE242" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AF242" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG242" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ242" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="AK242" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AL242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM242" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN242" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN242">
+  <autoFilter ref="A1:AN240">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -29998,7 +29758,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI241">
+  <conditionalFormatting sqref="A2:AI239">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -5554,7 +5554,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>

--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -5554,7 +5554,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>

--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -381,10 +381,10 @@
 </t>
   </si>
   <si>
-    <t>Closing the gap registration</t>
-  </si>
-  <si>
-    <t>Closing the Gap registration indicator for an Australian patient.</t>
+    <t>Patient Closing the Gap Program Eligibility Indication</t>
+  </si>
+  <si>
+    <t>Indication for eligibility for the Closing the Gap program.</t>
   </si>
   <si>
     <t>mothersMaidenName</t>
@@ -19857,7 +19857,7 @@
         <v>42</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>44</v>

--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="639">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -268,7 +268,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -343,7 +343,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/birthPlace]]} {[]}
+    <t xml:space="preserve">Extension {birthPlace}
 </t>
   </si>
   <si>
@@ -364,7 +364,7 @@
     <t>indigenousStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/indigenous-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/indigenous-status}
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>closingTheGapRegistration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration}
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>mothersMaidenName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-mothersMaidenName]]} {[]}
+    <t xml:space="preserve">Extension {patient-mothersMaidenName}
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -470,7 +470,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -544,7 +544,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -566,7 +566,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -621,7 +621,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -703,7 +703,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
+    <t>IHI</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -727,10 +727,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -754,7 +754,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -772,7 +772,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -842,16 +842,13 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -875,7 +872,7 @@
     <t>Patient.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -953,7 +950,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/dva</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -991,16 +988,13 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -1035,9 +1029,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>commonwealthSeniorsHealthCard</t>
   </si>
   <si>
@@ -1055,7 +1046,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
+    <t>Commonwealth Seniors Health Card</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values.</t>
@@ -1087,7 +1078,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
+    <t>Medical Record Number</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1125,9 +1116,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
-  </si>
-  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1200,7 +1188,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1217,7 +1205,7 @@
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -1229,7 +1217,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -1257,7 +1245,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1318,7 +1306,7 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1358,7 +1346,7 @@
     <t>accuracyIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator}
 </t>
   </si>
   <si>
@@ -1374,7 +1362,7 @@
     <t>birthTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-birthTime]]} {[]}
+    <t xml:space="preserve">Extension {patient-birthTime}
 </t>
   </si>
   <si>
@@ -1387,7 +1375,7 @@
     <t>Patient.birthDate.value</t>
   </si>
   <si>
-    <t xml:space="preserve">null {[]} {[]}
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
@@ -1403,8 +1391,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
+    <t>boolean
+dateTime</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -1484,7 +1472,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1539,8 +1527,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
+    <t>boolean
+integer</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1566,7 +1554,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1588,7 +1576,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1711,7 +1699,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
 </t>
   </si>
   <si>
@@ -1943,7 +1931,7 @@
     <t>General Practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
 </t>
   </si>
   <si>
@@ -2016,7 +2004,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -2097,67 +2085,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -2193,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO193"/>
+  <dimension ref="A1:AN193"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2216,7 +2204,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -7532,7 +7520,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7632,10 +7620,10 @@
         <v>65</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -7646,7 +7634,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>44</v>
@@ -7746,10 +7734,10 @@
         <v>143</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>233</v>
@@ -7775,7 +7763,7 @@
         <v>44</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>44</v>
@@ -7860,7 +7848,7 @@
         <v>240</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>242</v>
@@ -7946,7 +7934,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8058,7 +8046,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8172,7 +8160,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8195,16 +8183,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8254,31 +8242,31 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH53" t="s" s="2">
+      <c r="AI53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -8286,7 +8274,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8309,92 +8297,92 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P54" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8519,7 +8507,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>44</v>
@@ -8544,10 +8532,10 @@
         <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
@@ -8612,7 +8600,7 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>135</v>
@@ -9000,10 +8988,10 @@
         <v>192</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>195</v>
@@ -9461,7 +9449,7 @@
         <v>213</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>215</v>
@@ -9574,10 +9562,10 @@
         <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -9588,7 +9576,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
@@ -9688,13 +9676,13 @@
         <v>143</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9717,7 +9705,7 @@
         <v>44</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W66" t="s" s="2">
         <v>44</v>
@@ -10005,7 +9993,7 @@
         <v>129</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>44</v>
@@ -10030,10 +10018,10 @@
         <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
@@ -10486,10 +10474,10 @@
         <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>195</v>
@@ -10505,7 +10493,7 @@
         <v>44</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>44</v>
@@ -10947,7 +10935,7 @@
         <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>215</v>
@@ -10960,7 +10948,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>44</v>
@@ -11060,10 +11048,10 @@
         <v>65</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -11074,7 +11062,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>44</v>
@@ -11174,13 +11162,13 @@
         <v>143</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11203,7 +11191,7 @@
         <v>44</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>44</v>
@@ -11491,7 +11479,7 @@
         <v>129</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>44</v>
@@ -11516,10 +11504,10 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
@@ -11972,10 +11960,10 @@
         <v>192</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>195</v>
@@ -11991,7 +11979,7 @@
         <v>44</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>44</v>
@@ -12433,7 +12421,7 @@
         <v>213</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>215</v>
@@ -12446,7 +12434,7 @@
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>44</v>
@@ -12546,10 +12534,10 @@
         <v>65</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -12560,7 +12548,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>44</v>
@@ -12660,13 +12648,13 @@
         <v>143</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12689,7 +12677,7 @@
         <v>44</v>
       </c>
       <c r="V92" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W92" t="s" s="2">
         <v>44</v>
@@ -12977,7 +12965,7 @@
         <v>129</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>44</v>
@@ -13002,10 +12990,10 @@
         <v>130</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
@@ -13458,10 +13446,10 @@
         <v>192</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>195</v>
@@ -13477,7 +13465,7 @@
         <v>44</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>44</v>
@@ -13919,7 +13907,7 @@
         <v>213</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>215</v>
@@ -13932,7 +13920,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>44</v>
@@ -14032,10 +14020,10 @@
         <v>65</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -14046,7 +14034,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>44</v>
@@ -14146,13 +14134,13 @@
         <v>143</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14175,7 +14163,7 @@
         <v>44</v>
       </c>
       <c r="V105" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W105" t="s" s="2">
         <v>44</v>
@@ -14463,7 +14451,7 @@
         <v>129</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>44</v>
@@ -14488,10 +14476,10 @@
         <v>130</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
@@ -14944,10 +14932,10 @@
         <v>192</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>195</v>
@@ -14963,7 +14951,7 @@
         <v>44</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>44</v>
@@ -15405,7 +15393,7 @@
         <v>213</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>215</v>
@@ -15418,7 +15406,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>44</v>
@@ -15518,10 +15506,10 @@
         <v>65</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -15632,10 +15620,10 @@
         <v>143</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>233</v>
@@ -15858,7 +15846,7 @@
         <v>247</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>249</v>
@@ -15949,7 +15937,7 @@
         <v>129</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>44</v>
@@ -15974,10 +15962,10 @@
         <v>130</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
@@ -16430,10 +16418,10 @@
         <v>192</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>195</v>
@@ -16449,7 +16437,7 @@
         <v>44</v>
       </c>
       <c r="R125" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>44</v>
@@ -16891,7 +16879,7 @@
         <v>213</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>215</v>
@@ -16904,7 +16892,7 @@
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="R129" t="s" s="2">
         <v>44</v>
@@ -17004,10 +16992,10 @@
         <v>65</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
@@ -17118,10 +17106,10 @@
         <v>143</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>233</v>
@@ -17344,7 +17332,7 @@
         <v>247</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>249</v>
@@ -17432,7 +17420,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17544,7 +17532,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17658,7 +17646,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17684,13 +17672,13 @@
         <v>143</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -17740,7 +17728,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17749,7 +17737,7 @@
         <v>52</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>44</v>
@@ -17772,7 +17760,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17798,13 +17786,13 @@
         <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17854,7 +17842,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17869,7 +17857,7 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>44</v>
@@ -17886,7 +17874,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17912,13 +17900,13 @@
         <v>143</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17968,7 +17956,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18000,7 +17988,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18023,22 +18011,22 @@
         <v>53</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -18084,7 +18072,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18099,13 +18087,13 @@
         <v>44</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18116,7 +18104,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18139,19 +18127,19 @@
         <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -18200,7 +18188,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18215,16 +18203,16 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18232,7 +18220,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18255,19 +18243,19 @@
         <v>53</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18316,7 +18304,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18331,16 +18319,16 @@
         <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18348,7 +18336,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18374,16 +18362,16 @@
         <v>71</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
@@ -18411,52 +18399,52 @@
         <v>169</v>
       </c>
       <c r="X142" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM142" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18464,14 +18452,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E143" t="s" s="2">
         <v>42</v>
@@ -18489,19 +18477,19 @@
         <v>53</v>
       </c>
       <c r="J143" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18550,7 +18538,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18565,24 +18553,24 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18611,7 +18599,7 @@
         <v>144</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18694,7 +18682,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18804,10 +18792,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>44</v>
@@ -18829,16 +18817,16 @@
         <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -18920,10 +18908,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>44</v>
@@ -18945,13 +18933,13 @@
         <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19034,7 +19022,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19057,13 +19045,13 @@
         <v>44</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19114,7 +19102,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19146,7 +19134,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19169,19 +19157,19 @@
         <v>53</v>
       </c>
       <c r="J149" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19230,7 +19218,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19245,7 +19233,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>147</v>
@@ -19254,7 +19242,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19262,10 +19250,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>44</v>
@@ -19287,19 +19275,19 @@
         <v>53</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19348,7 +19336,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19363,7 +19351,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>147</v>
@@ -19372,7 +19360,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19380,10 +19368,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19405,19 +19393,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19466,7 +19454,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19481,7 +19469,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19490,7 +19478,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19498,10 +19486,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19523,19 +19511,19 @@
         <v>53</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19584,7 +19572,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19599,7 +19587,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19608,7 +19596,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19616,10 +19604,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19641,19 +19629,19 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19702,7 +19690,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19717,7 +19705,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19726,7 +19714,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19734,7 +19722,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19763,7 +19751,7 @@
         <v>144</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19846,7 +19834,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19956,10 +19944,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>44</v>
@@ -19981,16 +19969,16 @@
         <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20052,7 +20040,7 @@
         <v>107</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>44</v>
@@ -20072,7 +20060,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20095,13 +20083,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20152,7 +20140,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20184,7 +20172,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20207,19 +20195,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20268,7 +20256,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20283,16 +20271,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20300,7 +20288,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20326,14 +20314,14 @@
         <v>192</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20361,52 +20349,52 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20414,7 +20402,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20437,19 +20425,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20498,7 +20486,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20513,7 +20501,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20522,7 +20510,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20530,7 +20518,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20553,17 +20541,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20612,7 +20600,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20627,7 +20615,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20636,7 +20624,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20644,7 +20632,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20667,19 +20655,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N162" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20728,7 +20716,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20740,10 +20728,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20760,7 +20748,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20872,7 +20860,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20986,11 +20974,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21015,7 +21003,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21068,7 +21056,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21100,7 +21088,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21126,14 +21114,14 @@
         <v>192</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21162,7 +21150,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21180,7 +21168,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21195,7 +21183,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21204,7 +21192,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21212,7 +21200,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21235,17 +21223,17 @@
         <v>44</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21294,7 +21282,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21309,7 +21297,7 @@
         <v>44</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>147</v>
@@ -21318,7 +21306,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21326,7 +21314,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21349,19 +21337,19 @@
         <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21410,7 +21398,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21425,7 +21413,7 @@
         <v>44</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>147</v>
@@ -21434,7 +21422,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21442,7 +21430,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21465,17 +21453,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21524,7 +21512,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21539,7 +21527,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21548,7 +21536,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21556,7 +21544,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21582,14 +21570,14 @@
         <v>71</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21617,10 +21605,10 @@
         <v>169</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21638,7 +21626,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21653,7 +21641,7 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>147</v>
@@ -21662,7 +21650,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21670,7 +21658,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21693,17 +21681,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21752,7 +21740,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21761,13 +21749,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21776,7 +21764,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21784,7 +21772,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21810,10 +21798,10 @@
         <v>240</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21864,7 +21852,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21879,7 +21867,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21896,7 +21884,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21919,19 +21907,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21980,7 +21968,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21992,10 +21980,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -22012,7 +22000,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22124,7 +22112,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22238,11 +22226,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22267,7 +22255,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22320,7 +22308,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22352,7 +22340,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22378,16 +22366,16 @@
         <v>192</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22412,13 +22400,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22436,7 +22424,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22451,7 +22439,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22460,7 +22448,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22468,7 +22456,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22494,16 +22482,16 @@
         <v>192</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22528,32 +22516,32 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE178" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="X178" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
       </c>
@@ -22567,7 +22555,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22576,7 +22564,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22584,7 +22572,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22610,14 +22598,14 @@
         <v>192</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22642,13 +22630,13 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>44</v>
@@ -22666,7 +22654,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22681,7 +22669,7 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22698,7 +22686,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22721,19 +22709,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22782,7 +22770,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22794,13 +22782,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22814,7 +22802,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22926,7 +22914,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23040,11 +23028,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23069,7 +23057,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23122,7 +23110,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23154,7 +23142,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23180,16 +23168,16 @@
         <v>192</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23218,7 +23206,7 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23236,7 +23224,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>52</v>
@@ -23251,16 +23239,16 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23268,7 +23256,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23291,19 +23279,19 @@
         <v>44</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23352,7 +23340,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23367,16 +23355,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23384,14 +23372,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23409,16 +23397,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23468,7 +23456,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23483,7 +23471,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23492,7 +23480,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23500,14 +23488,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23525,19 +23513,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23586,7 +23574,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23601,10 +23589,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23618,7 +23606,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23641,19 +23629,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23702,7 +23690,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23714,10 +23702,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23734,7 +23722,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23846,7 +23834,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23960,11 +23948,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23989,7 +23977,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24042,7 +24030,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24074,7 +24062,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24097,16 +24085,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24156,7 +24144,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24180,7 +24168,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24188,7 +24176,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24214,10 +24202,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24247,10 +24235,10 @@
         <v>169</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24268,22 +24256,22 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="643">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -268,7 +268,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -343,7 +343,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {birthPlace}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/birthPlace]]} {[]}
 </t>
   </si>
   <si>
@@ -364,7 +364,7 @@
     <t>indigenousStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/indigenous-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/indigenous-status]]} {[]}
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>closingTheGapRegistration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration]]} {[]}
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>mothersMaidenName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-mothersMaidenName}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-mothersMaidenName]]} {[]}
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -470,7 +470,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -544,7 +544,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -566,7 +566,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier.</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -621,7 +621,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -703,7 +703,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>IHI</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -727,10 +727,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -754,7 +754,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
   </si>
   <si>
     <t>16</t>
@@ -772,7 +772,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -842,13 +842,16 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -872,7 +875,7 @@
     <t>Patient.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -950,7 +953,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/dva</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -988,13 +991,16 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -1029,6 +1035,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
+  </si>
+  <si>
     <t>commonwealthSeniorsHealthCard</t>
   </si>
   <si>
@@ -1046,7 +1055,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Commonwealth Seniors Health Card</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values.</t>
@@ -1078,7 +1087,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Medical Record Number</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1116,6 +1125,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
+  </si>
+  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1188,7 +1200,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -1205,7 +1217,7 @@
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>true</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -1217,7 +1229,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
+    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
 </t>
   </si>
   <si>
@@ -1245,7 +1257,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {[]} {[]}
 </t>
   </si>
   <si>
@@ -1306,7 +1318,7 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t xml:space="preserve">date
+    <t xml:space="preserve">date {[]} {[]}
 </t>
   </si>
   <si>
@@ -1346,7 +1358,7 @@
     <t>accuracyIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator]]} {[]}
 </t>
   </si>
   <si>
@@ -1362,7 +1374,7 @@
     <t>birthTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthTime}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-birthTime]]} {[]}
 </t>
   </si>
   <si>
@@ -1375,7 +1387,7 @@
     <t>Patient.birthDate.value</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve">null {[]} {[]}
 </t>
   </si>
   <si>
@@ -1391,8 +1403,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean
-dateTime</t>
+    <t>boolean {[]} {[]}
+dateTime {[]} {[]}</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -1472,7 +1484,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {[]} {[]}
 </t>
   </si>
   <si>
@@ -1527,8 +1539,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean
-integer</t>
+    <t>boolean {[]} {[]}
+integer {[]} {[]}</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1554,7 +1566,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment
+    <t xml:space="preserve">Attachment {[]} {[]}
 </t>
   </si>
   <si>
@@ -1576,7 +1588,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -1699,7 +1711,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -1931,7 +1943,7 @@
     <t>General Practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -2004,7 +2016,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
 </t>
   </si>
   <si>
@@ -2085,67 +2097,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -2181,7 +2193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN193"/>
+  <dimension ref="A1:AO193"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2204,7 +2216,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -7520,7 +7532,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7620,10 +7632,10 @@
         <v>65</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -7634,7 +7646,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>44</v>
@@ -7734,10 +7746,10 @@
         <v>143</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>233</v>
@@ -7763,7 +7775,7 @@
         <v>44</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>44</v>
@@ -7848,7 +7860,7 @@
         <v>240</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>242</v>
@@ -7934,7 +7946,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8046,7 +8058,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8160,7 +8172,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8183,16 +8195,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8242,7 +8254,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -8251,13 +8263,13 @@
         <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
@@ -8266,7 +8278,7 @@
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -8274,7 +8286,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8297,23 +8309,23 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>44</v>
@@ -8358,7 +8370,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -8367,13 +8379,13 @@
         <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -8382,7 +8394,7 @@
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8507,7 +8519,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>44</v>
@@ -8532,10 +8544,10 @@
         <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
@@ -8600,7 +8612,7 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>135</v>
@@ -8988,10 +9000,10 @@
         <v>192</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>195</v>
@@ -9449,7 +9461,7 @@
         <v>213</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>215</v>
@@ -9562,10 +9574,10 @@
         <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -9576,7 +9588,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
@@ -9676,13 +9688,13 @@
         <v>143</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9705,7 +9717,7 @@
         <v>44</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W66" t="s" s="2">
         <v>44</v>
@@ -9993,7 +10005,7 @@
         <v>129</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>44</v>
@@ -10018,10 +10030,10 @@
         <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
@@ -10474,10 +10486,10 @@
         <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>195</v>
@@ -10493,7 +10505,7 @@
         <v>44</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>44</v>
@@ -10935,7 +10947,7 @@
         <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>215</v>
@@ -10948,7 +10960,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>44</v>
@@ -11048,10 +11060,10 @@
         <v>65</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -11062,7 +11074,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>44</v>
@@ -11162,13 +11174,13 @@
         <v>143</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11191,7 +11203,7 @@
         <v>44</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>44</v>
@@ -11479,7 +11491,7 @@
         <v>129</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>44</v>
@@ -11504,10 +11516,10 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
@@ -11960,10 +11972,10 @@
         <v>192</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>195</v>
@@ -11979,7 +11991,7 @@
         <v>44</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>44</v>
@@ -12421,7 +12433,7 @@
         <v>213</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>215</v>
@@ -12434,7 +12446,7 @@
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>44</v>
@@ -12534,10 +12546,10 @@
         <v>65</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -12548,7 +12560,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>44</v>
@@ -12648,13 +12660,13 @@
         <v>143</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12677,7 +12689,7 @@
         <v>44</v>
       </c>
       <c r="V92" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W92" t="s" s="2">
         <v>44</v>
@@ -12965,7 +12977,7 @@
         <v>129</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>44</v>
@@ -12990,10 +13002,10 @@
         <v>130</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
@@ -13446,10 +13458,10 @@
         <v>192</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>195</v>
@@ -13465,7 +13477,7 @@
         <v>44</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>44</v>
@@ -13907,7 +13919,7 @@
         <v>213</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>215</v>
@@ -13920,7 +13932,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>44</v>
@@ -14020,10 +14032,10 @@
         <v>65</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -14034,7 +14046,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>44</v>
@@ -14134,13 +14146,13 @@
         <v>143</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14163,7 +14175,7 @@
         <v>44</v>
       </c>
       <c r="V105" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W105" t="s" s="2">
         <v>44</v>
@@ -14451,7 +14463,7 @@
         <v>129</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>44</v>
@@ -14476,10 +14488,10 @@
         <v>130</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
@@ -14932,10 +14944,10 @@
         <v>192</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>195</v>
@@ -14951,7 +14963,7 @@
         <v>44</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>44</v>
@@ -15393,7 +15405,7 @@
         <v>213</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>215</v>
@@ -15406,7 +15418,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>44</v>
@@ -15506,10 +15518,10 @@
         <v>65</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -15620,10 +15632,10 @@
         <v>143</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>233</v>
@@ -15846,7 +15858,7 @@
         <v>247</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>249</v>
@@ -15937,7 +15949,7 @@
         <v>129</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>44</v>
@@ -15962,10 +15974,10 @@
         <v>130</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
@@ -16418,10 +16430,10 @@
         <v>192</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>195</v>
@@ -16437,7 +16449,7 @@
         <v>44</v>
       </c>
       <c r="R125" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>44</v>
@@ -16879,7 +16891,7 @@
         <v>213</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>215</v>
@@ -16892,7 +16904,7 @@
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="R129" t="s" s="2">
         <v>44</v>
@@ -16992,10 +17004,10 @@
         <v>65</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
@@ -17106,10 +17118,10 @@
         <v>143</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>233</v>
@@ -17332,7 +17344,7 @@
         <v>247</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>249</v>
@@ -17420,7 +17432,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17532,7 +17544,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17646,7 +17658,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17672,13 +17684,13 @@
         <v>143</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -17728,7 +17740,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17737,7 +17749,7 @@
         <v>52</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>44</v>
@@ -17760,7 +17772,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17786,13 +17798,13 @@
         <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17842,7 +17854,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17857,7 +17869,7 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>44</v>
@@ -17874,7 +17886,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17900,13 +17912,13 @@
         <v>143</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17956,7 +17968,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -17988,7 +18000,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18011,22 +18023,22 @@
         <v>53</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -18072,7 +18084,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18087,13 +18099,13 @@
         <v>44</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18104,7 +18116,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18127,19 +18139,19 @@
         <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -18188,7 +18200,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18203,16 +18215,16 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18220,7 +18232,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18243,19 +18255,19 @@
         <v>53</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18304,7 +18316,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18319,16 +18331,16 @@
         <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18336,7 +18348,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18362,16 +18374,16 @@
         <v>71</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
@@ -18399,10 +18411,10 @@
         <v>169</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>44</v>
@@ -18420,7 +18432,7 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -18435,16 +18447,16 @@
         <v>44</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18452,14 +18464,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E143" t="s" s="2">
         <v>42</v>
@@ -18477,19 +18489,19 @@
         <v>53</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18538,7 +18550,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18553,24 +18565,24 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18599,7 +18611,7 @@
         <v>144</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18682,7 +18694,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18792,10 +18804,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>44</v>
@@ -18817,16 +18829,16 @@
         <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -18908,10 +18920,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>44</v>
@@ -18933,13 +18945,13 @@
         <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19022,7 +19034,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19045,13 +19057,13 @@
         <v>44</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19102,7 +19114,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19134,7 +19146,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19157,19 +19169,19 @@
         <v>53</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19218,7 +19230,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19233,7 +19245,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>147</v>
@@ -19242,7 +19254,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19250,10 +19262,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>44</v>
@@ -19275,19 +19287,19 @@
         <v>53</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19336,7 +19348,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19351,7 +19363,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>147</v>
@@ -19360,7 +19372,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19368,10 +19380,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19393,19 +19405,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19454,7 +19466,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19469,7 +19481,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19478,7 +19490,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19486,10 +19498,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19511,19 +19523,19 @@
         <v>53</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19572,7 +19584,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19587,7 +19599,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19596,7 +19608,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19604,10 +19616,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19629,19 +19641,19 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19690,7 +19702,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19705,7 +19717,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19714,7 +19726,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19722,7 +19734,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19751,7 +19763,7 @@
         <v>144</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19834,7 +19846,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19944,10 +19956,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>44</v>
@@ -19969,16 +19981,16 @@
         <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20040,7 +20052,7 @@
         <v>107</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>44</v>
@@ -20060,7 +20072,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20083,13 +20095,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20140,7 +20152,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20172,7 +20184,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20195,19 +20207,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20256,7 +20268,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20271,16 +20283,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20288,7 +20300,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20314,14 +20326,14 @@
         <v>192</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20349,29 +20361,29 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y159" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
       </c>
@@ -20385,16 +20397,16 @@
         <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20402,7 +20414,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20425,19 +20437,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20486,7 +20498,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20501,7 +20513,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20510,7 +20522,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20518,7 +20530,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20541,17 +20553,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20600,7 +20612,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20615,7 +20627,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20624,7 +20636,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20632,7 +20644,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20655,19 +20667,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20716,7 +20728,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20728,10 +20740,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20748,7 +20760,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20860,7 +20872,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20974,11 +20986,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21003,7 +21015,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21056,7 +21068,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21088,7 +21100,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21114,14 +21126,14 @@
         <v>192</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21150,25 +21162,25 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE166" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21183,7 +21195,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21192,7 +21204,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21200,7 +21212,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21223,17 +21235,17 @@
         <v>44</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21282,7 +21294,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21297,7 +21309,7 @@
         <v>44</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>147</v>
@@ -21306,7 +21318,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21314,7 +21326,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21337,19 +21349,19 @@
         <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21398,7 +21410,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21413,7 +21425,7 @@
         <v>44</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>147</v>
@@ -21422,7 +21434,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21430,7 +21442,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21453,17 +21465,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21512,7 +21524,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21527,7 +21539,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21536,7 +21548,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21544,7 +21556,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21570,14 +21582,14 @@
         <v>71</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21605,10 +21617,10 @@
         <v>169</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21626,7 +21638,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21641,7 +21653,7 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>147</v>
@@ -21650,7 +21662,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21658,7 +21670,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21681,17 +21693,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21740,7 +21752,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21749,13 +21761,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21764,7 +21776,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21772,7 +21784,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21798,10 +21810,10 @@
         <v>240</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21852,7 +21864,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21867,7 +21879,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21884,7 +21896,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21907,19 +21919,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21968,7 +21980,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21980,10 +21992,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -22000,7 +22012,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22112,7 +22124,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22226,11 +22238,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22255,7 +22267,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22308,7 +22320,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22340,7 +22352,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22366,16 +22378,16 @@
         <v>192</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22400,13 +22412,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22424,7 +22436,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22439,7 +22451,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22448,7 +22460,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22456,7 +22468,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22482,16 +22494,16 @@
         <v>192</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22516,13 +22528,13 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>44</v>
@@ -22540,7 +22552,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22555,7 +22567,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22564,7 +22576,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22572,7 +22584,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22598,14 +22610,14 @@
         <v>192</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22630,32 +22642,32 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE179" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="Y179" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>569</v>
-      </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
       </c>
@@ -22669,7 +22681,7 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22686,7 +22698,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22709,19 +22721,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22770,7 +22782,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22782,13 +22794,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22802,7 +22814,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22914,7 +22926,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23028,11 +23040,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23057,7 +23069,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23110,7 +23122,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23142,7 +23154,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23168,16 +23180,16 @@
         <v>192</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23206,7 +23218,7 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23224,7 +23236,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>52</v>
@@ -23239,16 +23251,16 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23256,7 +23268,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23279,19 +23291,19 @@
         <v>44</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23340,7 +23352,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23355,16 +23367,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23372,14 +23384,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23397,16 +23409,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23456,7 +23468,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23471,7 +23483,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23480,7 +23492,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23488,14 +23500,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23513,19 +23525,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23574,7 +23586,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23589,10 +23601,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23606,7 +23618,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23629,19 +23641,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23690,7 +23702,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23702,10 +23714,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23722,7 +23734,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23834,7 +23846,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23948,11 +23960,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23977,7 +23989,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24030,7 +24042,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24062,7 +24074,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24085,16 +24097,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24144,7 +24156,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24168,7 +24180,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24176,7 +24188,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24202,10 +24214,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24235,10 +24247,10 @@
         <v>169</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24256,7 +24268,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>52</v>
@@ -24271,7 +24283,7 @@
         <v>44</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="638">
   <si>
     <t>Path</t>
   </si>
@@ -358,7 +358,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>indigenousStatus</t>
@@ -1454,10 +1454,6 @@
   </si>
   <si>
     <t>In some circumstances, systems may only have date or datetime data that has unknown or estimated parts.  This coding establishes the acuraccy of the day, month and year parts.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.deceasedDateTime.value</t>
@@ -20040,7 +20036,7 @@
         <v>107</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>44</v>
@@ -20060,7 +20056,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20086,7 +20082,7 @@
         <v>426</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>428</v>
@@ -20140,7 +20136,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20172,7 +20168,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20195,19 +20191,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K158" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K158" t="s" s="2">
+      <c r="L158" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20256,7 +20252,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20271,16 +20267,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AK158" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AK158" t="s" s="2">
+      <c r="AL158" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM158" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20288,7 +20284,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20314,14 +20310,14 @@
         <v>192</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20349,52 +20345,52 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y159" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y159" t="s" s="2">
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
+      <c r="AK159" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AK159" t="s" s="2">
+      <c r="AL159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20402,7 +20398,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20425,19 +20421,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="M160" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20486,7 +20482,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20501,7 +20497,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20510,7 +20506,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20518,7 +20514,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20541,17 +20537,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20600,7 +20596,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20615,7 +20611,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20624,7 +20620,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20632,7 +20628,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20655,19 +20651,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K162" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="K162" t="s" s="2">
+      <c r="L162" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20716,7 +20712,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20728,10 +20724,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20748,7 +20744,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20860,7 +20856,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20974,11 +20970,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21003,7 +20999,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21056,7 +21052,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21088,7 +21084,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21114,14 +21110,14 @@
         <v>192</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21150,7 +21146,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21168,7 +21164,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21183,7 +21179,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21192,7 +21188,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21200,7 +21196,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21226,14 +21222,14 @@
         <v>375</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21282,7 +21278,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21306,7 +21302,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21314,7 +21310,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21340,13 +21336,13 @@
         <v>384</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>388</v>
@@ -21398,7 +21394,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21422,7 +21418,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21430,7 +21426,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21453,17 +21449,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21512,7 +21508,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21527,7 +21523,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21536,7 +21532,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21544,7 +21540,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21573,11 +21569,11 @@
         <v>393</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21626,7 +21622,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21650,7 +21646,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21658,7 +21654,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21681,17 +21677,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K171" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="K171" t="s" s="2">
+      <c r="L171" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21740,7 +21736,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21749,13 +21745,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21764,7 +21760,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21772,7 +21768,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21798,10 +21794,10 @@
         <v>240</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21852,7 +21848,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21867,7 +21863,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21884,7 +21880,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21907,19 +21903,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21968,7 +21964,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21980,10 +21976,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -22000,7 +21996,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22112,7 +22108,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22226,11 +22222,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22255,7 +22251,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22308,7 +22304,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22340,7 +22336,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22366,16 +22362,16 @@
         <v>192</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22400,14 +22396,14 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="X177" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="X177" t="s" s="2">
+      <c r="Y177" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="Y177" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
       </c>
@@ -22424,7 +22420,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22439,7 +22435,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22448,7 +22444,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22456,7 +22452,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22482,16 +22478,16 @@
         <v>192</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22516,46 +22512,46 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="X178" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="Y178" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="Y178" t="s" s="2">
+      <c r="Z178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22564,7 +22560,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22572,7 +22568,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22598,14 +22594,14 @@
         <v>192</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22630,46 +22626,46 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Y179" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="Y179" t="s" s="2">
+      <c r="Z179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22686,7 +22682,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22709,19 +22705,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22770,7 +22766,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22782,13 +22778,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AJ180" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AK180" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22802,7 +22798,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22914,7 +22910,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23028,11 +23024,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23057,7 +23053,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23110,7 +23106,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23142,7 +23138,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23168,16 +23164,16 @@
         <v>192</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23206,49 +23202,49 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="Z184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
+      <c r="AK184" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AK184" t="s" s="2">
+      <c r="AL184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM184" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23256,7 +23252,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23282,16 +23278,16 @@
         <v>366</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="M185" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23340,7 +23336,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23355,16 +23351,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AK185" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AK185" t="s" s="2">
+      <c r="AL185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23372,14 +23368,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="D186" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23397,16 +23393,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="K186" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="K186" t="s" s="2">
+      <c r="L186" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23456,7 +23452,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23471,7 +23467,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23480,7 +23476,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23488,14 +23484,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23513,19 +23509,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23574,7 +23570,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23589,10 +23585,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23606,7 +23602,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23629,19 +23625,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23690,7 +23686,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23702,10 +23698,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23722,7 +23718,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23834,7 +23830,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23948,11 +23944,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23977,7 +23973,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24030,7 +24026,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24062,7 +24058,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24085,16 +24081,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="K192" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="K192" t="s" s="2">
+      <c r="L192" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24144,7 +24140,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24168,7 +24164,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24176,7 +24172,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24202,10 +24198,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24235,43 +24231,43 @@
         <v>169</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="Y193" t="s" s="2">
+      <c r="Z193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -20512,7 +20512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
         <v>481</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>44</v>

--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="637">
   <si>
     <t>Path</t>
   </si>
@@ -1221,25 +1221,26 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the patient</t>
-  </si>
-  <si>
-    <t>A name associated with the individual.</t>
-  </si>
-  <si>
-    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts may or may not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>.patient.name</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-humn-01:The name shall at least have text or a family name or a given name {text.exists() or family.exists() or given.exists()}</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>XPN</t>
   </si>
   <si>
     <t>Patient.telecom</t>
@@ -1406,6 +1407,13 @@
   </si>
   <si>
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
@@ -1638,16 +1646,7 @@
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t>A name associated with the contact person</t>
-  </si>
-  <si>
-    <t>A name associated with the contact person.</t>
-  </si>
-  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
-  </si>
-  <si>
-    <t>NK1-2</t>
   </si>
   <si>
     <t>Patient.contact.telecom</t>
@@ -18120,7 +18119,7 @@
         <v>44</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>375</v>
@@ -18193,16 +18192,16 @@
         <v>43</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>381</v>
+        <v>44</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>44</v>
@@ -19128,7 +19127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
         <v>430</v>
       </c>
@@ -19202,16 +19201,14 @@
         <v>44</v>
       </c>
       <c r="AA149" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="AB149" s="2"/>
       <c r="AC149" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>430</v>
@@ -19229,7 +19226,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>147</v>
@@ -19238,7 +19235,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19249,7 +19246,7 @@
         <v>430</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>44</v>
@@ -19274,7 +19271,7 @@
         <v>431</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L150" t="s" s="2">
         <v>433</v>
@@ -19347,7 +19344,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>147</v>
@@ -19356,7 +19353,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19367,7 +19364,7 @@
         <v>430</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19392,7 +19389,7 @@
         <v>431</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L151" t="s" s="2">
         <v>433</v>
@@ -19465,7 +19462,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19474,7 +19471,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19482,10 +19479,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19510,10 +19507,10 @@
         <v>366</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>434</v>
@@ -19583,7 +19580,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19592,7 +19589,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19600,10 +19597,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19628,10 +19625,10 @@
         <v>271</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M153" t="s" s="2">
         <v>434</v>
@@ -19701,7 +19698,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19710,7 +19707,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19718,7 +19715,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19830,7 +19827,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19940,7 +19937,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>416</v>
@@ -19968,13 +19965,13 @@
         <v>417</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>419</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20056,7 +20053,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20082,7 +20079,7 @@
         <v>426</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>428</v>
@@ -20136,7 +20133,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20168,7 +20165,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20191,19 +20188,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20252,7 +20249,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20267,16 +20264,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20284,7 +20281,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20310,14 +20307,14 @@
         <v>192</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20345,10 +20342,10 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>44</v>
@@ -20366,7 +20363,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20381,16 +20378,16 @@
         <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20398,7 +20395,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20421,19 +20418,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20482,7 +20479,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20497,7 +20494,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20506,7 +20503,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20514,7 +20511,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20537,17 +20534,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20596,7 +20593,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20611,7 +20608,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20620,7 +20617,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20628,7 +20625,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20651,19 +20648,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20712,7 +20709,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20724,10 +20721,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20744,7 +20741,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20856,7 +20853,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20970,11 +20967,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20999,7 +20996,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21052,7 +21049,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21084,7 +21081,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21110,14 +21107,14 @@
         <v>192</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21146,7 +21143,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21164,7 +21161,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21179,7 +21176,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21188,7 +21185,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21196,7 +21193,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21222,12 +21219,14 @@
         <v>375</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>510</v>
+        <v>376</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M167" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="N167" t="s" s="2">
         <v>512</v>
       </c>
@@ -21278,7 +21277,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21287,22 +21286,22 @@
         <v>52</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>513</v>
+        <v>382</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21310,7 +21309,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21336,13 +21335,13 @@
         <v>384</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>388</v>
@@ -21394,7 +21393,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21418,7 +21417,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21426,7 +21425,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21449,17 +21448,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21508,7 +21507,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21523,7 +21522,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21532,7 +21531,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21540,7 +21539,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21569,11 +21568,11 @@
         <v>393</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21622,7 +21621,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21646,7 +21645,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21654,7 +21653,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21677,17 +21676,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K171" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="K171" t="s" s="2">
+      <c r="L171" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21736,7 +21735,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21745,13 +21744,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21760,7 +21759,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21768,7 +21767,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21794,10 +21793,10 @@
         <v>240</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21848,7 +21847,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21863,7 +21862,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21880,7 +21879,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21903,19 +21902,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21964,7 +21963,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21976,10 +21975,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -21996,7 +21995,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22108,7 +22107,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22222,11 +22221,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22251,7 +22250,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22304,7 +22303,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22336,7 +22335,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22362,16 +22361,16 @@
         <v>192</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22396,14 +22395,14 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="X177" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="X177" t="s" s="2">
+      <c r="Y177" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="Y177" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
       </c>
@@ -22420,7 +22419,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22435,7 +22434,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22444,7 +22443,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22452,7 +22451,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22478,16 +22477,16 @@
         <v>192</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22512,46 +22511,46 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="X178" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="Y178" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="Y178" t="s" s="2">
+      <c r="Z178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22560,7 +22559,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22568,7 +22567,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22594,14 +22593,14 @@
         <v>192</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22626,46 +22625,46 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Y179" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="Y179" t="s" s="2">
+      <c r="Z179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22682,7 +22681,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22705,19 +22704,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22766,7 +22765,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22778,13 +22777,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AJ180" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AK180" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22798,7 +22797,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22910,7 +22909,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23024,11 +23023,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23053,7 +23052,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23106,7 +23105,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23138,7 +23137,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23164,16 +23163,16 @@
         <v>192</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23202,49 +23201,49 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="Z184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
+      <c r="AK184" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="AK184" t="s" s="2">
+      <c r="AL184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM184" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23252,7 +23251,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23278,16 +23277,16 @@
         <v>366</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="M185" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23336,7 +23335,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23351,16 +23350,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AK185" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="AK185" t="s" s="2">
+      <c r="AL185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23368,14 +23367,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="D186" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23393,16 +23392,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K186" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K186" t="s" s="2">
+      <c r="L186" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23452,7 +23451,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23467,7 +23466,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23476,7 +23475,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23484,14 +23483,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23509,19 +23508,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23570,7 +23569,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23585,10 +23584,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23602,7 +23601,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23625,19 +23624,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23686,7 +23685,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23698,10 +23697,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23718,7 +23717,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23830,7 +23829,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23944,11 +23943,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23973,7 +23972,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24026,7 +24025,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24058,7 +24057,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24081,16 +24080,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="K192" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="K192" t="s" s="2">
+      <c r="L192" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24140,7 +24139,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24164,7 +24163,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24172,7 +24171,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24198,10 +24197,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24231,43 +24230,43 @@
         <v>169</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="Y193" t="s" s="2">
+      <c r="Z193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="634">
   <si>
     <t>Path</t>
   </si>
@@ -1387,10 +1387,6 @@
   </si>
   <si>
     <t>Patient.birthDate.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Primitive value for date</t>
@@ -19254,13 +19250,13 @@
         <v>44</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K150" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K150" t="s" s="2">
+      <c r="L150" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19311,7 +19307,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19343,7 +19339,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19366,19 +19362,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K151" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K151" t="s" s="2">
+      <c r="L151" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19425,7 +19421,7 @@
         <v>170</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19440,7 +19436,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19449,7 +19445,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19457,10 +19453,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19485,16 +19481,16 @@
         <v>370</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L152" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="M152" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19543,7 +19539,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19558,7 +19554,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19567,7 +19563,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19575,10 +19571,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19603,16 +19599,16 @@
         <v>275</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L153" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="M153" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19661,7 +19657,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19676,7 +19672,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19685,7 +19681,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19693,7 +19689,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19805,7 +19801,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19915,7 +19911,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>420</v>
@@ -19943,13 +19939,13 @@
         <v>421</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>423</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20031,7 +20027,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20054,13 +20050,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20111,7 +20107,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20143,7 +20139,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20166,19 +20162,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K158" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K158" t="s" s="2">
+      <c r="L158" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20227,7 +20223,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20242,16 +20238,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AK158" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AK158" t="s" s="2">
+      <c r="AL158" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM158" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20259,7 +20255,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20285,14 +20281,14 @@
         <v>196</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20320,52 +20316,52 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Y159" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Y159" t="s" s="2">
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
+      <c r="AK159" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AK159" t="s" s="2">
+      <c r="AL159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20373,7 +20369,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20396,19 +20392,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="M160" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20457,7 +20453,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20472,7 +20468,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20481,7 +20477,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20489,7 +20485,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20512,17 +20508,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20571,7 +20567,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20586,7 +20582,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20595,7 +20591,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20603,7 +20599,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20626,19 +20622,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K162" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K162" t="s" s="2">
+      <c r="L162" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20687,7 +20683,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20699,10 +20695,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20719,7 +20715,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20831,7 +20827,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20945,11 +20941,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20974,7 +20970,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21027,7 +21023,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21059,7 +21055,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21085,14 +21081,14 @@
         <v>196</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21121,7 +21117,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21139,7 +21135,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21154,7 +21150,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21163,7 +21159,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21171,7 +21167,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21206,7 +21202,7 @@
         <v>382</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21255,7 +21251,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21287,7 +21283,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21313,13 +21309,13 @@
         <v>388</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>392</v>
@@ -21371,7 +21367,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21395,7 +21391,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21403,7 +21399,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21426,17 +21422,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21485,7 +21481,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21500,7 +21496,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21509,7 +21505,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21517,7 +21513,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21546,11 +21542,11 @@
         <v>397</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21599,7 +21595,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21623,7 +21619,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21631,7 +21627,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21654,17 +21650,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K171" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="K171" t="s" s="2">
+      <c r="L171" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21713,7 +21709,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21722,13 +21718,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21737,7 +21733,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21745,7 +21741,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21771,10 +21767,10 @@
         <v>244</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21825,7 +21821,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21840,7 +21836,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21857,7 +21853,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21880,19 +21876,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21941,7 +21937,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21953,10 +21949,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -21973,7 +21969,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22085,7 +22081,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22199,11 +22195,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22228,7 +22224,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22281,7 +22277,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22313,7 +22309,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22339,16 +22335,16 @@
         <v>196</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22373,14 +22369,14 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="X177" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="X177" t="s" s="2">
+      <c r="Y177" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Y177" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
       </c>
@@ -22397,7 +22393,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22412,7 +22408,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22421,7 +22417,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22429,7 +22425,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22455,16 +22451,16 @@
         <v>196</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22489,46 +22485,46 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="X178" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Y178" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="Y178" t="s" s="2">
+      <c r="Z178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22537,7 +22533,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22545,7 +22541,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22571,14 +22567,14 @@
         <v>196</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22603,46 +22599,46 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Y179" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="Y179" t="s" s="2">
+      <c r="Z179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22659,7 +22655,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22682,19 +22678,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22743,7 +22739,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22755,13 +22751,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ180" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AK180" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22775,7 +22771,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22887,7 +22883,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23001,11 +22997,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23030,7 +23026,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23083,7 +23079,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23115,7 +23111,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23141,16 +23137,16 @@
         <v>196</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23179,49 +23175,49 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Z184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
+      <c r="AK184" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AK184" t="s" s="2">
+      <c r="AL184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM184" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23229,7 +23225,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23255,16 +23251,16 @@
         <v>370</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="M185" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23313,7 +23309,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23328,16 +23324,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AK185" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AK185" t="s" s="2">
+      <c r="AL185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23345,14 +23341,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="D186" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23370,16 +23366,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="K186" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="K186" t="s" s="2">
+      <c r="L186" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23429,7 +23425,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23444,7 +23440,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23453,7 +23449,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23461,14 +23457,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23486,19 +23482,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23547,7 +23543,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23562,10 +23558,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23579,7 +23575,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23602,19 +23598,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23663,7 +23659,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23675,10 +23671,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23695,7 +23691,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23807,7 +23803,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23921,11 +23917,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23950,7 +23946,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24003,7 +23999,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24035,7 +24031,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24058,16 +24054,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K192" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="K192" t="s" s="2">
+      <c r="L192" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24117,7 +24113,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24141,7 +24137,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24149,7 +24145,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24175,10 +24171,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24208,43 +24204,43 @@
         <v>174</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="Y193" t="s" s="2">
+      <c r="Z193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/SharedHealthSummary/patient-ihi-1.xlsx
+++ b/output/SharedHealthSummary/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="635">
   <si>
     <t>Path</t>
   </si>
@@ -1387,6 +1387,10 @@
   </si>
   <si>
     <t>Patient.birthDate.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Primitive value for date</t>
@@ -19250,13 +19254,13 @@
         <v>44</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19307,7 +19311,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19339,7 +19343,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19362,19 +19366,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19421,7 +19425,7 @@
         <v>170</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19436,7 +19440,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19445,7 +19449,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19453,10 +19457,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19481,16 +19485,16 @@
         <v>370</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19539,7 +19543,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19554,7 +19558,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19563,7 +19567,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19571,10 +19575,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19599,16 +19603,16 @@
         <v>275</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19657,7 +19661,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19672,7 +19676,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19681,7 +19685,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19689,7 +19693,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19801,7 +19805,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19911,7 +19915,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>420</v>
@@ -19939,13 +19943,13 @@
         <v>421</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>423</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20027,7 +20031,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20050,13 +20054,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20107,7 +20111,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20139,7 +20143,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20162,19 +20166,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20223,7 +20227,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20238,16 +20242,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20255,7 +20259,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20281,14 +20285,14 @@
         <v>196</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20316,10 +20320,10 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>44</v>
@@ -20337,7 +20341,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20352,16 +20356,16 @@
         <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20369,7 +20373,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20392,19 +20396,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20453,7 +20457,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20468,7 +20472,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20477,7 +20481,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20485,7 +20489,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20508,17 +20512,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20567,7 +20571,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20582,7 +20586,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20591,7 +20595,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20599,7 +20603,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20622,19 +20626,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20683,7 +20687,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20695,10 +20699,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20715,7 +20719,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20827,7 +20831,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20941,11 +20945,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20970,7 +20974,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21023,7 +21027,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21055,7 +21059,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21081,14 +21085,14 @@
         <v>196</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21117,7 +21121,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21135,7 +21139,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21150,7 +21154,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21159,7 +21163,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21167,7 +21171,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21202,7 +21206,7 @@
         <v>382</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21251,7 +21255,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21283,7 +21287,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21309,13 +21313,13 @@
         <v>388</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>392</v>
@@ -21367,7 +21371,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21391,7 +21395,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21399,7 +21403,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21422,17 +21426,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21481,7 +21485,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21496,7 +21500,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21505,7 +21509,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21513,7 +21517,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21542,11 +21546,11 @@
         <v>397</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21595,7 +21599,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21619,7 +21623,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21627,7 +21631,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21650,17 +21654,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21709,7 +21713,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21718,13 +21722,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21733,7 +21737,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21741,7 +21745,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21767,10 +21771,10 @@
         <v>244</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21821,7 +21825,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21836,7 +21840,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21853,7 +21857,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21876,19 +21880,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21937,7 +21941,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21949,10 +21953,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -21969,7 +21973,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22081,7 +22085,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22195,11 +22199,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22224,7 +22228,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22277,7 +22281,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22309,7 +22313,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22335,16 +22339,16 @@
         <v>196</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22369,13 +22373,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22393,7 +22397,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22408,7 +22412,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22417,7 +22421,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22425,7 +22429,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22451,16 +22455,16 @@
         <v>196</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22485,13 +22489,13 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>44</v>
@@ -22509,7 +22513,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22524,7 +22528,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22533,7 +22537,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22541,7 +22545,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22567,14 +22571,14 @@
         <v>196</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22599,13 +22603,13 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>44</v>
@@ -22623,7 +22627,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22638,7 +22642,7 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22655,7 +22659,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22678,19 +22682,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22739,7 +22743,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22751,13 +22755,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22771,7 +22775,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22883,7 +22887,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22997,11 +23001,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23026,7 +23030,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23079,7 +23083,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23111,7 +23115,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23137,16 +23141,16 @@
         <v>196</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23175,7 +23179,7 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23193,7 +23197,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>52</v>
@@ -23208,16 +23212,16 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23225,7 +23229,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23251,16 +23255,16 @@
         <v>370</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23309,7 +23313,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23324,16 +23328,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23341,14 +23345,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23366,16 +23370,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23425,7 +23429,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23440,7 +23444,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23449,7 +23453,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23457,14 +23461,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23482,19 +23486,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23543,7 +23547,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23558,10 +23562,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23575,7 +23579,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23598,19 +23602,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23659,7 +23663,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23671,10 +23675,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23691,7 +23695,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23803,7 +23807,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23917,11 +23921,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23946,7 +23950,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -23999,7 +24003,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24031,7 +24035,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24054,16 +24058,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24113,7 +24117,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24137,7 +24141,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24145,7 +24149,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24171,10 +24175,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24204,10 +24208,10 @@
         <v>174</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24225,7 +24229,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>52</v>
@@ -24240,7 +24244,7 @@
         <v>44</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>
